--- a/biology/Botanique/Disa_stairsii/Disa_stairsii.xlsx
+++ b/biology/Botanique/Disa_stairsii/Disa_stairsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disa stairsii est une espèce de plante de la famille des Orchidaceae.
 Cette orchidée terrestre se rencontre en Afrique, notamment au Rwanda, en République démocratique du Congo, au Kenya, en Tanzanie et en Ouganda.
